--- a/files/game_preferences_form_1.xlsx
+++ b/files/game_preferences_form_1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denkabaruhin/PycharmProjects/summer_practice/files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BF0195-C56D-714E-AC7A-A8DD4BF836A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -333,12 +327,1865 @@
   <si>
     <t>1 - совсем  нет</t>
   </si>
+  <si>
+    <t>2025-03-19 15:46:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На данный момент не играю в игры </t>
+  </si>
+  <si>
+    <t>BG3, Divinity Original sin 2, Disco Elysium, ведьмак 3 ,  Death stranding , Ellen ring, Dark souls 1-3, bolatro, dead cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG  3 шикарная во всех сферах РПГ с огромной вариативность развёртывания событий, глубокое погружение в процесс, прекрасно прописаные персонажи и сюжет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dos 2
+BG 3 
+Ведьмак 3
+Death stranding
+Disco Elysium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сюжет, уникальные в своём роде, сделаны с любовью </t>
+  </si>
+  <si>
+    <t>РПГ
+Souls like
+Rouge like
+Стратегии
+Гонки
+Шутеры
+Хорроры</t>
+  </si>
+  <si>
+    <t>2025-03-21 13:02:20</t>
+  </si>
+  <si>
+    <t>Играю только  в компьютерные игры. В общей сложности за неделю думаю выходит часов 8-10</t>
+  </si>
+  <si>
+    <t>1. Cyberpunk 2077 проходил 3 раза, поэтому часов 120 точно должно быть
+2. God of war Ragnarok 55 часов
+3. Helldivers 2 83 часа</t>
+  </si>
+  <si>
+    <t>Мне очень нравится визуальный стиль киберпанка, поэтому часто перепрохожу его. К тому же сам геймплей затягивает. Также возвращался в игру, чтобы пройти дополнение Phantom Liberty</t>
+  </si>
+  <si>
+    <t>1. Cyberpunk 2077
+2. God of war Ragnarok
+3. Middle-earth Shadow of war
+4. Helldivers 2
+5. Ghost of Tsushima</t>
+  </si>
+  <si>
+    <t>1. Прекрасный визуальный стиль, интересный сюжет
+2. Красочная и приятная боёвка
+3. Очень затягивающий геймплей, прекрасные анимации для того времени (да и сейчас тоже)
+4. Очень кинематографичная игра, в которой экшена больше чем в некоторых коридорных играх. Нравится месить жуков)
+5. Неимоверно красивый мир, крутая боевка</t>
+  </si>
+  <si>
+    <t>1. Экшен\шутеры
+2. РПГ
+3. Симуляторы
+4. Файтинги
+5. Гонки
+6. Стратегии
+7. Роуг лайк
+8. Игры песочницы
+9. Moba
+10. MMORPG
+11. Визуальные новеллы
+12. Хорроры
+13. Аркады
+14. Казуальные игры
+15. Головоломки
+16. Квесты</t>
+  </si>
+  <si>
+    <t>2025-03-19 05:50:20</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minecraft - 1500ч-2500ч
+Factorio - 450ч
+Space Engineers 1/2 - 500ч
+Noita - 100ч
+Eve Online - 1400ч-2000ч
+Dota 2 - 800ч
+League of Legends - 1500ч
+</t>
+  </si>
+  <si>
+    <t>Песочница.
+Фактически в ней с детсва, сильно модифицируемая
+Огромное количество модификаций и сценариев игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginners guide
+Space Engineers
+Minecraft
+Barotrauma
+Factorio
+</t>
+  </si>
+  <si>
+    <t>Beginners guide - миростроение, повествование
+Остальное - песочницы, социальные, креативные</t>
+  </si>
+  <si>
+    <t>игры-песочницы, роуг-лайк, MMORPG, стратегии, MOBA, казуальные игры, РПГ,  визуальные новеллы, аркады,  симуляторы, экшен\шутеры, гонки, файтинги, квесты, головоломки, хорроры.</t>
+  </si>
+  <si>
+    <t>2025-03-21 03:42:27</t>
+  </si>
+  <si>
+    <t>3-9 часов (все зависит от занятости)</t>
+  </si>
+  <si>
+    <t>1)Tom Clancy's Rainbow Six Siege (30 ч)
+2)Dead by Daylight  (384 ч.) 
+3) Dota 2   ( 2 420,5 ч.)
+4) Garry's Mod (621,9 ч.)
+5) 7 Days to Die  (125,9 ч.)</t>
+  </si>
+  <si>
+    <t>Не смотря на то,что я наиграл в нее меньше всех, она затянуло меня своим экшеном + динамичность, военной тематикой, тактикой ( стратегия боя), реалистичностью (не во всех местах , но все же).</t>
+  </si>
+  <si>
+    <t>1)  Tom Clancy's Rainbow Six Siege
+2)  Dead by Daylight
+3) 7 Days to Die
+4)  Counter-Strike 2
+5)  Dota 2</t>
+  </si>
+  <si>
+    <t>Динамичность, элементы стратегии, тактика,  огромная вариативность.</t>
+  </si>
+  <si>
+    <t>1. экшен-шутеры
+2. MOBA
+3. стратегии
+4. РПГ</t>
+  </si>
+  <si>
+    <t>1 - совсем нет</t>
+  </si>
+  <si>
+    <t>2025-03-21 07:51:31</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>2 часа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sims 4, играю в пиратку </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне нравится создавать персонажа и строить им дома </t>
+  </si>
+  <si>
+    <t>1. The sims 4
+2. Bus simulator
+3. Аэрокухня
+4. Pubg
+5. Cs2</t>
+  </si>
+  <si>
+    <t>Мне нравится симуляторы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">симуляторы, гонки, квесты, головоломки, шутеры, аркады, файтинги, стратегии, хорроры, роуг-лайк, казуальные игры, MOBA, MMORPG, РПГ, игры-песочницы </t>
+  </si>
+  <si>
+    <t>2025-03-19 05:01:35</t>
+  </si>
+  <si>
+    <t>В данный момент уже как 2 года не играю. Раньше проводил много времени за играми. Около 40-50 часов в неделю.</t>
+  </si>
+  <si>
+    <t>1. Ark: Survival Evolved - 2700ч
+2. Minecraft - ~&gt;5000ч
+3. Escape From Tarkov - 1100ч
+4. Dota 2 - ~5000ч</t>
+  </si>
+  <si>
+    <t>Вышедшая в 2015 году, ARK:SE казалась очень привлекательной по трейлерам, и мы с друзьями решили попробовать поиграть. Процесс развития в игре был продуман так хорошо, что она воспринималась как крайне комплексная. Можно было разрабатывать различные стратегии развития и тщательно выбирать место для строительства базы. Поскольку игра является PvPvE, для успешного развития нужно было не только защищаться от других игроков и диких животных, но и эффективно использовать окружающую среду. 
+Особую роль играли PvP-события: приходилось сталкиваться с другими игроками, которые могли атаковать вашу базу или мешать развитию. Это добавляло элемент неопределенности и заставляло постоянно быть начеку, чувствуя адреналин в каждом действии. 
+Кроме того, система обновлений и дополнительных карт регулярно вносила новые механики, существ, что поддерживало наш интерес на протяжении долгого времени. ARK:SE стала для нас не просто игрой, а целым миром, где каждый день приносил новые испытания и возможности для развития. Именно эта многогранность и глубина игрового процесса сделала её такой затягивающей.</t>
+  </si>
+  <si>
+    <t>1.Dark Souls 1
+2.TES: Skyrim
+3.Dark Souls 2
+4.Escape  From Tarkov
+5.Minecraft</t>
+  </si>
+  <si>
+    <t>Сложность, глубокая механика боев, реализм, Risk-reward система</t>
+  </si>
+  <si>
+    <t>1.РПГ
+2. Игры-Песочницы
+3.Экшен-шутеры
+4. MMORPG
+4.Роуг-Лайк
+5. Визуальные новеллы
+7. Хорроры
+8. Казуальные игры
+9. MOBA
+10. Гонки</t>
+  </si>
+  <si>
+    <t>2025-03-21 08:54:54</t>
+  </si>
+  <si>
+    <t>В компьютерные игры я играю по 1-2 часа в день.</t>
+  </si>
+  <si>
+    <t>GTA SAMP: 3873 часов</t>
+  </si>
+  <si>
+    <t>Потому что, когда у меня появился первый ноутбук, он был слабым, а GTA SAMP как раз таки была не требовательной. Затянула потому что люблю стрелять, что там и можно делать за различные группировки.</t>
+  </si>
+  <si>
+    <t>GTA SAMP, GTA V Online,  CS 2, DOTA, Roblox</t>
+  </si>
+  <si>
+    <t>Открытый мир, свобода действий, шутер, разнообразие, веселье.</t>
+  </si>
+  <si>
+    <t>1. Шутеры
+2. РПГ
+3. MOBA
+4. Гонки
+5. Хорроры
+6. Souls-like игры</t>
+  </si>
+  <si>
+    <t>2025-03-20 07:31:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не больше 15 часов </t>
+  </si>
+  <si>
+    <t>Cities skylines  500 часов</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rdr2
+Одни из нас 1,2
+Uncharted 4
+Cities Skylines
+Ведьмак 3</t>
+  </si>
+  <si>
+    <t>Глубокий и интересный сюжет</t>
+  </si>
+  <si>
+    <t>1. экшен\шутеры
+2. РПГ
+3. Стратегии
+4. симуляторы
+5. файтинги
+6. Казуальные
+7. аркады
+8. гонки
+9. MMORPG
+10. игры-песочницы
+11. роуг-лайк
+12. квесты
+13. хорроры
+14. головоломки
+15. MOBA
+16. визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-04-13 06:14:17</t>
+  </si>
+  <si>
+    <t>Около 15 часов</t>
+  </si>
+  <si>
+    <t>Sonic Heroes - 800 часов
+Madagascar - 700
+The binding of Isaac - 570
+Bloons TD6 - 500</t>
+  </si>
+  <si>
+    <t>Ещё в детстве Соник был любимым персонажем, которого я видел только по телевизору, а потом брат принес мне диск с этой игрой и я смог впервые поиграть в неё</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonic Heroes 
+Sonic Unleashed 
+Madagascar
+The binding of Isaac 
+Bloons TD6 
+</t>
+  </si>
+  <si>
+    <t>Любимые герои, удобное управление, геймплей</t>
+  </si>
+  <si>
+    <t>1. Казуальные игры
+2. Роуг-лайк
+3. Симуляторы
+4. Головоломки
+5. Стратегии
+6. Квесты
+7. Экшен-шутеры
+8. Хорроры
+9. Аркады
+10. Игры-песочницы
+11. Визуальные новеллы 
+12. Гонки
+13. Файтинги
+14. РПГ
+15. MOBA
+16. MMORPG</t>
+  </si>
+  <si>
+    <t>2025-03-19 12:25:39</t>
+  </si>
+  <si>
+    <t>Когда как, невозможно посчитать... но судя по активности в стиме за последние 2 недели -20 часов(примерно по 10 каждую неделю)</t>
+  </si>
+  <si>
+    <t>Baldur's Gate 3-наиграла 60 часов, до сих пор до конца не прошла.
+Ведьмак 3: Дикая охота-10 часов, только-только начала, но очень нравится.
+Dota2-800 часов, стабильно играю.
+Phasmophobia-80 часов, редко захожу, только если в компании.
+Не буду упоминать все инди-игры по названиям, но если говорить о часах, в сумме около 100-200 выйдет.</t>
+  </si>
+  <si>
+    <t>В балдуре очень интересная механика разговоров, боев(как в D&amp;D), очень интересный сюжет и просто миллион плюшек для людей, которые просто зашли полюбоваться.</t>
+  </si>
+  <si>
+    <t>Dota2
+Heavy rain 
+Серия игр от rusty lake(cube escape, roots и тд)
+Alice:Madness returns 
+Silent Hill(вся серия игр, включая ремейк)</t>
+  </si>
+  <si>
+    <t>воспоминания, сюжет, удовольствие, эмоции(разные(страх, слезы счастья и тд)), детство, посиделки в звонке</t>
+  </si>
+  <si>
+    <t>1.хорроры
+2.казуальные игры
+3.стратегии
+4.квесты
+5.головоломки
+6.MOBA
+7.РПГ
+8.визуальные новеллы
+9.экшен\шутеры
+10.роуг-лайк
+11.файтинги
+12.аркады
+13.симуляторы
+14.MMORPG
+15.гонки
+16.игры-песочницы</t>
+  </si>
+  <si>
+    <t>2025-03-20 02:45:25</t>
+  </si>
+  <si>
+    <t>1-2 дня в неделю 4-6 часов в сумме</t>
+  </si>
+  <si>
+    <t>майнкрафт, в сумме больше 700 часов</t>
+  </si>
+  <si>
+    <t>первая игра, хорошая платформа для работы с Java (написание плагнов), площадка где много миниигр и возможностей для творчества</t>
+  </si>
+  <si>
+    <t>1. Minecraft
+2. Minecraft Dungeons
+3. Among Us</t>
+  </si>
+  <si>
+    <t>1. Рассказал в одном из прошлых вопросов
+2. Игра из серии Minecraft в той же "вселенной"
+3. Нравится жанр поиска маньяка, в Minecraft часто играю в режим Murder Mystery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Игры-песочницы
+2. Аркады
+3. Квесты, головоломки
+4. Роуг-лайк
+5. Стратегии
+6. Хорроры
+7. Визуальные новеллы
+8. Казуальные </t>
+  </si>
+  <si>
+    <t>2025-03-20 07:52:29</t>
+  </si>
+  <si>
+    <t>20 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battlefield 1 - 11 часов
+Genshin Impact  - 7 часов
+Overwatch 2 - 9 часов
+Dead by Daylight - 5 часов
+Victoria 3 - 4 часа
+</t>
+  </si>
+  <si>
+    <t>Мне нравится масштабность и зрелищность происходящего, необычность сеттинга. Также мне нравится жанр шутера от первого лица сам по себе</t>
+  </si>
+  <si>
+    <t>Crusader Kings 3
+Battlefield 1
+Victoria 3
+Overwatch 2
+Dead by Daylight</t>
+  </si>
+  <si>
+    <t>Историчность, зрелищность, интересный сеттенг, динамичность, продуманность, эффектность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Экшен/шутер
+2.Стратегии
+3.Файтинг
+4.РПГ
+5.MMORPG
+6.Песочницы
+7.Аркады
+8. Визуальные новеллы
+9. КазУальные игры
+10.Хорроры
+11.MOBA
+12. Симуляторы
+13. Гонки
+14. Роуг-лайк
+15. Квесты
+16. Головоломки 
+</t>
+  </si>
+  <si>
+    <t>2025-03-20 05:15:09</t>
+  </si>
+  <si>
+    <t>5 часов в неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World of Tanks (800 часов)
+Clash Royale (50 часов)
+</t>
+  </si>
+  <si>
+    <t>Игра для дегенератов, я таковым являюсь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizon Zero Down
+Metro 2033
+Terraria
+World of Tanks 
+Clash Royale 
+</t>
+  </si>
+  <si>
+    <t>Суть/смысл игры (зачем я играю), графика, интерфейс</t>
+  </si>
+  <si>
+    <t>нет предпочтений</t>
+  </si>
+  <si>
+    <t>1 - однозначно один</t>
+  </si>
+  <si>
+    <t>045286</t>
+  </si>
+  <si>
+    <t>2025-03-21 15:32:12</t>
+  </si>
+  <si>
+    <t>около 7-10 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slay the spire 199.8
+valorant играю с демо-версии, сколько часов неизвестно
+don't starve together 47 часов в силу того, что игра не для одного человека
+king of thiefs играю около 9 лет, сколько часов не представляю
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">игра не зависит от скорости интернета, можно сохраняться и продолжать играть на моменте, где остановился.
+рогалик, но не динамичный как айзек, то есть можно играя, на что-то отвлечься. 
+в целом интересная игра, которая зависит не только от знаний самой игры, но и от рандома в игре (колода, реликвии, боссы и тд.) </t>
+  </si>
+  <si>
+    <t>slay the spire
+best fiends
+it takes two
+don't starve together
+valorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">спокойствие, логика, дизайн
+прикольная игра, чтобы убить время
+проверка отношений, хихи хаха, уютненько
+крутой дизайн, крутая песочница, сложность игры
+динамика, общение с людьми (эту игру я не люблю, моментами удаляю) </t>
+  </si>
+  <si>
+    <t>хоррор
+аркады
+рогалик
+файтинг
+шутер
+мморпг
+гонки
+насчет остальных ничего сказать не могу, все бы поставила в конец, но визуальные новеллы в САМЫЙ конец</t>
+  </si>
+  <si>
+    <t>2025-03-21 08:04:41</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minecraft (10к)
+Hollow knight (200)
+</t>
+  </si>
+  <si>
+    <t>Реиграбильность, мультиплеер, медитативный геймплей, свобода действий.</t>
+  </si>
+  <si>
+    <t>Minecraft 
+Hollow knight 
+Death stranding 
+God of war
+Red dead redemption 2</t>
+  </si>
+  <si>
+    <t>Minecraft и hollow knight за геймплей. Остальные за  сюжет</t>
+  </si>
+  <si>
+    <t>1. Песочницы
+2. Экшен
+3. РПГ 
+4. Роуг лайк
+5. Хоррор
+6. Стратегии
+7. Аркады
+8. Симуляторы
+9. Головоломки
+10. Гонки
+11. Казуальные игры
+12. ММОРПГ
+13. МОБА
+14. Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-03-21 08:16:24</t>
+  </si>
+  <si>
+    <t>0ч</t>
+  </si>
+  <si>
+    <t>Hearts of Iron 4 (~222 ч)
+Elden Ring (~500 ч)
+Minecraft(~5тыс ч)
+Fortnite(~3 тыс ч)
+Deadlock(~120 ч)
+Valorant(~2тыс ч)</t>
+  </si>
+  <si>
+    <t>Культовая игра, в которую хочется возвращаться каждый день вместе с друзьями, развивает творческое и алгоритмическое мышление.
+Fortnite - игра, захватившая мой разум в подростковом возрасте, грезил мечтами о киберспорте, заработал только 200$.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elden Ring
+Minecraft
+GTA online
+Fortnite
+Valorant
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соревновательность, секретность, тайны, сюжет, экшен, приятное времяпрепровождение, командный дух, коммуникация, графика, детали, анимации, культовость... </t>
+  </si>
+  <si>
+    <t>1. РПГ
+2. игры-песочницы
+3. экшен\шутеры
+4. стратегии
+5. MMPRPG
+6. казуальные игры
+7. симуляторы
+8. роуг-лайк (еще ничего не пробывал, но дам шанс)
+9. хорроры (Resident  Evil и Outlast неплохи)
+10. файтинги (прошлый век)
+11. квесты (что это:?...)
+12. гонки (мне не 7 и не 50 лет)
+13. головоломки (типо BrainOut?...)
+14. визуальные новеллы (я похож на пубертатную девочку или анимешника)
+15. аркады (не ну если бы был 1980 год конечно)</t>
+  </si>
+  <si>
+    <t>2025-03-22 07:25:17</t>
+  </si>
+  <si>
+    <t>Minecraft - 1.5 часа</t>
+  </si>
+  <si>
+    <t>играем с друзьями, хорошо проводим время</t>
+  </si>
+  <si>
+    <t>Assassin's creed 4 black flag
+red dead redemption 2
+the last of us
+uncharted
+infamous second son</t>
+  </si>
+  <si>
+    <t>сюжет, атмосфера, геймплей</t>
+  </si>
+  <si>
+    <t>экшен
+стелс
+шутеры
+песочницы</t>
+  </si>
+  <si>
+    <t>2025-03-20 07:39:03</t>
+  </si>
+  <si>
+    <t>Около 4 часов 2-3 дня в неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет такой игры, которую я играю регулярно на протяжении продолжительного количества времени. </t>
+  </si>
+  <si>
+    <t>Повторюсь, не люблю онлайн игры, предпочитаю сюжетные сингл проекты, после завершения сюжета в такие игры зачастую я не возвращаюсь обратно.</t>
+  </si>
+  <si>
+    <t>1 Sekiro: shadows die twice
+2 Dark souls 3
+3 Elden ring
+4 Buldur's gate 3
+5 Far cry 5</t>
+  </si>
+  <si>
+    <t>Челенж, реиграбельность, сюжет, билостроение, квесты, геймплей, сетинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 РПГ
+2 экшен\шутеры
+3файтинги
+4 роуглайк
+5 головоломки
+6 квесты
+7 хорроры
+8 стратегии
+9 игры песочницы
+10 симуляторы
+11 визуальные новеллы
+12 аркады
+13 казуальные игры
+14 ММОRPG
+15 MOBA
+</t>
+  </si>
+  <si>
+    <t>054051</t>
+  </si>
+  <si>
+    <t>2025-03-22 18:05:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalcraft - Steam - 1500 часов
+Gensin Impact - EGS - 350 часов
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Захватывающая атмосфера
+Интересный геймплей
+Частые обновления
+Открытая экономика
+</t>
+  </si>
+  <si>
+    <t>Cyberpunk2077
+Stalcraft
+Forza horizon 4
+Ведьмак 3
+Сапер</t>
+  </si>
+  <si>
+    <t>Сетинг
+Интересный геймплей
+Не линейность</t>
+  </si>
+  <si>
+    <t>1.экшен\шутеры
+2.MMORPG
+3.головоломки
+4.гонки
+5. роуг-лайк
+6. визуальные новеллы
+7. игры-песочницы
+8. РПГ
+9. хорроры
+10. MOBA
+11. стратегии
+12. симуляторы
+13. файтинги
+14.  аркады
+15. казуальные игры
+16. квесты</t>
+  </si>
+  <si>
+    <t>2025-03-18 16:00:51</t>
+  </si>
+  <si>
+    <t>1-2 часа в день</t>
+  </si>
+  <si>
+    <t>Heart of Iron 4 - 116 часов, war thunder - 356 часов, это все.</t>
+  </si>
+  <si>
+    <t>Нравятся исторические стратегии с интересными механиками, также уникальный геймплей в отличие от конкурентов. Также она довольно таки обширная в плане развития событий.</t>
+  </si>
+  <si>
+    <t>HOI 4, war thunder, super Mario brothers, Minecraft, mr. White.</t>
+  </si>
+  <si>
+    <t>Интересная, не простая, обширная, захватывающая, динамичная.</t>
+  </si>
+  <si>
+    <t>Стратегии
+Экшен
+Симуляторы
+Гонки
+Хорроры
+Квесты
+Аркады
+Казуалки
+Файтинги
+Роуг лайк
+Песочницы
+Мoba
+MMORPG
+Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-03-21 08:33:16</t>
+  </si>
+  <si>
+    <t>В зависимости от свободного времени.  ~от 2 до 20ч, где около 2 часа это игры на парах во время учебы, а &gt;2 часов на каникулах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genshin Impact 393ч
+Stardew Valley 95ч
+</t>
+  </si>
+  <si>
+    <t>мне нравится возможность изучения мира, прокачивания героев и тд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genshin Impact
+Stardew Valley
+Minecraft
+</t>
+  </si>
+  <si>
+    <t>Genshin Impact - открытый мир
+Stardew Valley - фермерство
+Minecraft - выживание</t>
+  </si>
+  <si>
+    <t>игры-песочницы
+симуляторы
+казуальные игры
+РПГ
+гонки
+аркады
+хорроры
+файтинги
+головоломки
+стратегии
+квесты
+визуальные новеллы
+экшен\шутеры
+MOBA, MMORPG.</t>
+  </si>
+  <si>
+    <t>2025-03-18 15:41:28</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liftoff
+</t>
+  </si>
+  <si>
+    <t>Наличие уникальных механик, единственная альтернатива в следствии гос. решений.</t>
+  </si>
+  <si>
+    <t>Liftoff
+к сожалению игры разлюбил(, теперь играюсь с GCC\Cmake</t>
+  </si>
+  <si>
+    <t>Динамика, Скорость, развитие мелкой моторики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. квесты
+2. головоломки
+3. хорроры
+4. игры-песочницы
+5. стратегии
+6. РПГ
+7. роуг-лайк
+8. симуляторы
+9. визуальные новеллы
+10.аркады
+11.гонки
+12. файтинги
+13. экшен\шутеры
+14. казуальные игры
+15. MMORPG
+16. MOBA
+</t>
+  </si>
+  <si>
+    <t>2025-03-19 03:55:59</t>
+  </si>
+  <si>
+    <t>Stardew Valley - 57,7 часов
+Hearts of Iron IV - 241,2 часа
+Imperator: Rome - ~100 часов</t>
+  </si>
+  <si>
+    <t>Простой и увлекательный симулятор фермерства, помогает расслабиться после учебы</t>
+  </si>
+  <si>
+    <t>Terraria
+Omori
+Portal 2
+Stardew Valley
+OneShot</t>
+  </si>
+  <si>
+    <t>Захватывающий сюжет, интересные персонажи, уникальный геймплей</t>
+  </si>
+  <si>
+    <t>1. визуальные новеллы
+2. симуляторы
+3. казуальные игры
+4. стратегии
+5. квесты
+6. головоломки
+7. игры-песочницы
+8. РПГ
+9. аркады
+10. хорроры
+11. роуг-лайк
+12. гонки
+13. экшен\шутеры
+14. файтинги
+15. MOBA
+16. MMORPG</t>
+  </si>
+  <si>
+    <t>2025-03-21 01:29:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-3 часа в неделю </t>
+  </si>
+  <si>
+    <t>Europa Universalis IV (~450 часов в совокупности)
+Red Orchestra 2 (307 часов) 
+Grow Castle (мобильная; около 50 часов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Продуманная стратегия, обладающая мощной реиграбельностью благодаря проработке стран, регионов, а также широкой вариативности геймплея за каждую из стран </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Orchestra 2
+Europa Universalis IV 
+Garry’s Mod (с друзьями) 
+The Binding of Isaac: Repentance
+Mount and Blade: Warband
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Orchestra 2 – за проработанный и хардкорный геймплей, а также за продуманный исторический сеттинг Сталинграда времён 1942 года. 
+Europa Universalis IV – см. выше (воп. «Почему вас так затянула игра, которая оказалась на первом месте в предыдущем вопросе?»)
+Garry’s Mod – эталон жанра песочница, который предоставляет возможность строить с друзьями свою собственную игру и весело проводить время 
+The Binding of Isaac: Repentance – за высокую реиграбельность, сложность и оформление игры
+Mount and Blade: Warband – открытый мир, предоставляющий широчайший выбор внутриигровой деятельности; атмосфера и сеттинг Средневековья </t>
+  </si>
+  <si>
+    <t>1. Экшен/шутеры
+2. Стратегии
+3. Rogue-like
+4. Игры-песочницы
+5. Аркады
+6. Казуальные игры 
+7. Симуляторы
+8. Хорроры
+9. Квесты
+10. Головоломки 
+11. Гонки
+12. MOBA
+13. Визуальные новеллы 
+14. Файтинги
+15. MMORPG
+16. РПГ</t>
+  </si>
+  <si>
+    <t>2025-03-19 13:58:18</t>
+  </si>
+  <si>
+    <t>В данное время меньше 1-3 часов
+На каникулах 5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Майнкрафт - 500
+Prey (2017) - 100
+The binding of Isaac - 50
+Terraria - 50
+The long dark - 50
+Factorio - 20
+</t>
+  </si>
+  <si>
+    <t>Сеттинг, возможности, модификации, онлайн</t>
+  </si>
+  <si>
+    <t>Майнкрафт
+Prey (2017)
+Portal 2
+Metro 2033
+Stalker</t>
+  </si>
+  <si>
+    <t>Атмосфера, возможности, сюжет, модификации, глубокий открытый мир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Шутеры
+2. Песочницы
+3. Роуг-лайк
+4. Головоломки
+5. РПГ
+6. Стратегии
+7. ММОРПГ
+8. Хорроры
+9. Квесты
+10. Гонки
+11. Файтинги
+12. Симуляторы
+13. Аркады
+14. Казуальные
+15. Визуальные новеллы
+16. MOBA 
+</t>
+  </si>
+  <si>
+    <t>2025-03-20 07:34:22</t>
+  </si>
+  <si>
+    <t>~15 часов</t>
+  </si>
+  <si>
+    <t>кс2 3000ч, бравл старс ~4000ч</t>
+  </si>
+  <si>
+    <t>в кс я много играла с друзьями, это было прикольное общение и меня это расслабляло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кс
+бравл старс
+валорант
+мортал комбат
+юфс
+</t>
+  </si>
+  <si>
+    <t>мне нравятся игры в плане шутеров</t>
+  </si>
+  <si>
+    <t>1.экшен\шутеры
+2. файтинги
+3.гонки
+4.казуальные игры
+5.рпг
+6.головоломки
+7.квесты
+8.визуальные новеллы
+9.мова
+10.ммоrpg
+11.роуг лайк
+12.хорроры</t>
+  </si>
+  <si>
+    <t>2025-03-21 15:30:32</t>
+  </si>
+  <si>
+    <t>около 10 часов в неделю</t>
+  </si>
+  <si>
+    <t>Spider man 2018 - 50 часов
+Spider man 2 - 42 часа
+Assassin's creed Valhalla - 150 часов
+Assassin's creed Mirage - 16 часов</t>
+  </si>
+  <si>
+    <t>Своей реиграбельностью, открытым миром, визуалом</t>
+  </si>
+  <si>
+    <t>Mass Effect
+Metro Exodus
+Spider man ( 1 и 2)
+Assassin's creed Unity</t>
+  </si>
+  <si>
+    <t>За красивый визуал, некоторые на возможность различного отыгрыша, за геймплей</t>
+  </si>
+  <si>
+    <t>1 Экшн-шутеря
+2 РПГ
+3 хорроры
+4 игры песочницы
+5 аркады
+6 казуальные игры 
+7 Файтинги
+8 Симуляторы 
+9 Роуг лайк
+10 Стратегии
+11. Гонки
+12 Квесты
+13 Головоломки
+14 Визуальные новеллы
+15 ММО РПГ
+16 МОБА</t>
+  </si>
+  <si>
+    <t>2025-03-22 04:03:06</t>
+  </si>
+  <si>
+    <t>я очень редко играю в игры</t>
+  </si>
+  <si>
+    <t>1. PUBG - 7 часов
+2. Homescapes - 40 часов
+3. Sims - 10 часов</t>
+  </si>
+  <si>
+    <t>потому что нужно быстро принимать решения, можно играть в команде и присутствует адреналин</t>
+  </si>
+  <si>
+    <t>1. PUBG
+2. Homescapes
+3. Sims</t>
+  </si>
+  <si>
+    <t>в игре Sims можно проявлять фантазию, строя новые объекты; в игре Homescapes можно выбирать дизайн дома, проходя уровни; PUBG - захватывающая игра</t>
+  </si>
+  <si>
+    <t>1. Гонки
+2. Казуальные игры
+3. Экшен/шутеры
+4. Файтинги
+5. Головоломки
+6. Хорроры
+7. Симуляторы
+8. Роуг-лайк
+9. Квесты
+10. Игры-песочницы
+11. Стратегии 
+12. Аркады 
+13. Визуальные новеллы 
+14. MOBA
+15. MMORPG</t>
+  </si>
+  <si>
+    <t>2025-03-19 07:30:31</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One more turn... </t>
+  </si>
+  <si>
+    <t>Цива, mlbb, minecraft, crusaiders kings 3,colonist</t>
+  </si>
+  <si>
+    <t>Стратегии люблю потому что думать надо,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стратегии
+Moba
+Песочницы
+Рогалики
+Аркады
+Рпг
+Ммо рпг
+Все остальное в одну кучу
+</t>
+  </si>
+  <si>
+    <t>2025-03-18 15:40:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 </t>
+  </si>
+  <si>
+    <t>Dota 2 - 4 221,8 ч.
+CS2 - 2 174,4 ч.</t>
+  </si>
+  <si>
+    <t>Стратегия в реальном времени, где каждая игра уникальна. 
+Довольно сложные механики, азарт соревнования</t>
+  </si>
+  <si>
+    <t>Dota 2
+League of legends 
+CS2
+War Thunder</t>
+  </si>
+  <si>
+    <t>Соревновательность, стратегия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. MOBA
+2. MMORPG
+3. стратегии
+4. экшен-шутеры
+5. симуляторы
+6. РПГ
+7. игры-песочницы
+8. хорроры
+9. аркады
+10. казуальные игры
+11. файтинги
+12. квесты
+13. головоломки
+14. визуальные новеллы
+</t>
+  </si>
+  <si>
+    <t>2025-03-23 07:44:06</t>
+  </si>
+  <si>
+    <t>Я временно не играю в компьютерные игры, но обычно около 3-4 часов в неделю</t>
+  </si>
+  <si>
+    <t>Lies of P (играю долго т.к. не могу пройти)</t>
+  </si>
+  <si>
+    <t>Графика, атмосфера, музыка</t>
+  </si>
+  <si>
+    <t>1. Bloodborne
+2. Resident Evil 2
+3. Last of Us
+4. Dead by Daylight
+5. Sekai</t>
+  </si>
+  <si>
+    <t>Тем, что брат уже купил их в Стиме</t>
+  </si>
+  <si>
+    <t>1. Экшен-Шутеры, РПГ
+2. Хорроры
+3. Гонки
+4. MOBA
+5. Файтинги
+6. Квесты
+7. MMORPG
+8. Cимуляторы
+9. Рогалики
+10. Песочницы
+11. Аркады
+12. Головоломки
+13. Стратегии
+14. Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>093056</t>
+  </si>
+  <si>
+    <t>2025-03-18 15:38:34</t>
+  </si>
+  <si>
+    <t>Обычно до 10-15 часов. Если это каникулы, то до 30-35.</t>
+  </si>
+  <si>
+    <t>1. Dishonored - 128 ч.
+2. Fallout: New Vegas - 472 ч.
+3. Counter-Strike 2 - 875 ч.</t>
+  </si>
+  <si>
+    <t>Эта игра затягивает благодаря сочетанию глубокого и вариативного геймплея, неплохой истории, атмосферного мира с глубоким лором и высокой реиграбельности. Игра предоставляет игроку свободу выбора и поощряет творческий подход к решению задач, делая каждое прохождение уникальным и увлекательным. В Dishonored интересно исследовать, экспериментировать и находить новые способы прохождения, что и делает ее такой "аддиктивной".</t>
+  </si>
+  <si>
+    <t>1. Dishonored
+2. Fallout: New Vegas
+3. Mass Effect™ издание Legendary
+4. Ведьмак 3: Дикая Охота
+5. Red Dead Redemption 2</t>
+  </si>
+  <si>
+    <t>Уникальный игровой опыт, захватывающие истории, интересные персонажи и глубокий геймплей</t>
+  </si>
+  <si>
+    <t>1. экшен\шутеры
+2. РПГ
+3. игры-песочницы
+4. хорроры
+5. головоломки
+6. файтинги
+7. стратегии
+8. гонки
+9. симуляторы
+10. MMORPG
+11. аркады
+12. роуг-лайк
+13. визуальные новеллы
+14. казуальные игры
+15. MOBA
+16. квесты</t>
+  </si>
+  <si>
+    <t>2025-03-18 14:54:35</t>
+  </si>
+  <si>
+    <t>4 часа в неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все части Нэнси Дрю  суммарно 80 часов
+Tomb Rider 4 часа
+Witcher 3 20 часов
+</t>
+  </si>
+  <si>
+    <t>Потому что она развивает критическое мышление, в ней есть интересные головоломки и задачи, которые мне нравится решать</t>
+  </si>
+  <si>
+    <t>1. Нэнси Дрю: Ранчо теней
+2. Нэнси Дрю: Волк Ледяного ущелья
+3. The witcher 3
+4. Machinarium
+5. Assassin's Creed IV</t>
+  </si>
+  <si>
+    <t>Пункты 1,2 и 4 за интересные головоломки и сюжет
+Пункты 3, 5 за сюжет и механику боев, прокачки персонажей</t>
+  </si>
+  <si>
+    <t>1. головоломки
+2. квесты
+3. РПГ
+4. стратегии
+5. экшен\шутеры
+6. аркады
+7. казуальные игры
+8. игры-песочницы
+9. файтинг
+10. симуляторы
+11. визуальные новеллы
+12. роуг-лайк
+13.  гонки
+14. MOBA
+15.  хорроры
+16. MMORPG</t>
+  </si>
+  <si>
+    <t>2025-03-20 10:13:45</t>
+  </si>
+  <si>
+    <t>Если повезёт, то часов 7</t>
+  </si>
+  <si>
+    <t>На текущий момент: 
+MudRunner – 42,5 ч
+Clone done in the danger zone – 6,6 ч</t>
+  </si>
+  <si>
+    <t>Расслабляет; позволяет отвлечься от всего и ездить месить грязь, перевозя брёвна</t>
+  </si>
+  <si>
+    <t>GTA IV
+BeamNG.drive
+PUBG 
+Stormworks
+Mafia 2</t>
+  </si>
+  <si>
+    <t>Позволяют отвлечься; физика; атмосфера; беззаботность</t>
+  </si>
+  <si>
+    <t>1. Гонки
+2. Симуляторы
+3. Песочницы
+4. Экшен/шутеры
+5. Головоломки
+6. РПГ
+7. Стратегии
+8. Файтинги
+В остальное не играю...</t>
+  </si>
+  <si>
+    <t>2025-03-20 10:22:12</t>
+  </si>
+  <si>
+    <t>Обычно до 8-9 часов. Если это каникулы, то до 20 часов</t>
+  </si>
+  <si>
+    <t>Counter-Strike 2 - 2100 ч.
+Fall Guys - 400 ч.
+Fortnite - 1500 ч.</t>
+  </si>
+  <si>
+    <t>Меня затягивает Counter-Strike 2 благодаря сильному конкурентному элементу и эмоциональным качелям, которые возникают от побед и поражений. Каждый матч — это как настоящая борьба, где важен не только скилл, но и умение работать в команде, принимать быстрые решения. Я люблю командные игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter-Strike 2 
+Fall Guys 
+Fortnite 
+Minecraft
+Terraria
+</t>
+  </si>
+  <si>
+    <t>Counter-Strike 2 — благодаря высокому уровню конкуренции и постоянным матчам, игра не теряет актуальности
+Fall Guys — динамичные раунды и забавные испытания всегда остаются свежими
+Fortnite — постоянные обновления, новые сезоны и события делают игру увлекательной
+Minecraft — бескрайние возможности для творчества и исследовательского процесса
+Terraria — множество контента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. экшен\шутеры
+2. игры-песочницы
+3. РПГ
+4. стратегии
+5. файтинги
+6. головоломки
+7. хорроры
+8. гонки
+9. симуляторы
+10. аркады
+11. MMORPG
+12. роуг-лайк
+13. визуальные новеллы
+14. казуальные игры
+15. MOBA
+16. квесты
+</t>
+  </si>
+  <si>
+    <t>2025-03-22 01:13:24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Red Dead Redemption 2 - 140 часов
+2. GTA 5 - 200 часов 
+</t>
+  </si>
+  <si>
+    <t>Открытый мир, много возможностей, красивая графика, увлекательный сюжет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. RDR 2
+2. GTA 5
+3. Fallout New Vegas
+4. Ведьмак 3
+5.  Dying Light </t>
+  </si>
+  <si>
+    <t>Открытый мир</t>
+  </si>
+  <si>
+    <t>1. РПГ
+2. Экшен-шутеры
+3. Игры-песочницы
+4. Симуляторы
+5. Аркады
+6. Файтинги
+7. Роуглайк
+8. MMORPG
+9. MOBA
+10. Гонки
+11. Головоломки
+12. Стратегии
+13. Хорроры
+14. Квесты
+15. Казуальные игры
+16. Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-03-20 07:26:21</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>War Thunder 
+R.E.P.O
+Dota 2</t>
+  </si>
+  <si>
+    <t>Интересно реализованно большое количество механик игры</t>
+  </si>
+  <si>
+    <t>GTA 5
+Detroit: Become Human
+Far Cry 3
+Call of Duty 3
+GTA San Andreas</t>
+  </si>
+  <si>
+    <t>Насыщенный сюжет, продуманные детали обьектов. Неплохая визуальная часть</t>
+  </si>
+  <si>
+    <t>1. Рпг
+2. Хорроры
+3. Экшен/шутеры
+4.Аркады
+5. Гонки
+6. MMORPG
+7. Казуальные игры
+8. Стратегии
+9. Симуляторы
+10. Роуглайф
+11. Квесты
+12. Игры-песояницы
+13. Файтинги
+14. MOBA
+15. Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-03-21 15:17:18</t>
+  </si>
+  <si>
+    <t>4-5 часов, но это редко)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS2 2500к часов , Cyberpunk 200 часов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Потому что с друзьями играю </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyberpunk,
+Detroit become human,
+cs go,
+Minecraft,
+Witcher 3
+</t>
+  </si>
+  <si>
+    <t>Сюжет, геймдизайн</t>
+  </si>
+  <si>
+    <t>1) single palyer игры
+2) тактические шутры
+3) инди игры</t>
+  </si>
+  <si>
+    <t>2025-03-20 09:04:51</t>
+  </si>
+  <si>
+    <t>около 5 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apex Legends (255,8 Steam + 214 (PlayStation) часов), Battlefield (V, 4, Hardline, 1 в общем 650 часов),   God of War (в целом почти все части около 300 часов),  Gran Turismo Sport (91 час),  Spider-man ps4 (100 часов), Titanfall 2 (50 часов), Fortnite (300 часов),  Forza Horizon 5 (142 часа),  NFS (Heat, Payback, Rivals  в общем 200 часов), Detroit (100 часов), Minecraft (70 часов), 
+</t>
+  </si>
+  <si>
+    <t>Apex Legends затягивает благодаря динамичному геймплею, уникальным способностям легенд, командной тактике и постоянным обновлениям контента. Также современная стилистика, которая мне симпатизирует.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apex Legends, Gran Turismo Sport, God of War, Titanfall 2, Battlefield 4 </t>
+  </si>
+  <si>
+    <t>Динамичность, тактика, соревнование, современность, стратегия, командная игра</t>
+  </si>
+  <si>
+    <t>1. экшен-шутеры
+2. гонки
+3. симуляторы
+4. квесты
+5. рпг
+6. игры - песочницы
+7. файтинги
+8. хорроры
+9. стратегии
+10. головоломки
+11. аркады
+12. казуальные игры  
+13. визуальные новеллы
+14. роуг-лайк
+15. mmorpg
+16. moba</t>
+  </si>
+  <si>
+    <t>2025-03-21 19:24:45</t>
+  </si>
+  <si>
+    <t>Примерно 20-40 часов в неделю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. cs - 5000 часов
+2. valorant - 2000 часов
+3. fortnite - 2000 часов
+4. rocket league - 300 часов
+</t>
+  </si>
+  <si>
+    <t>для меня кс игра детства, мне нравятся её механики, как шутер она одна из лучших для меня</t>
+  </si>
+  <si>
+    <t>1. cs
+2. valorant
+3. fortnite
+4. rocket league
+5. minecraft</t>
+  </si>
+  <si>
+    <t>мне нравятся в основном соревновательные игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. экшен/шутеры
+2. игры-песочницы
+3. файтинги
+4. РПГ
+5. MMORPG
+6. аркады
+7. MOBA
+8. гонки
+9. роуг-лайк
+10. хорроры
+11. симуляторы
+12. стратегии
+13. головоломки
+14. квесты
+15. казуальные игры
+16. визуальные новеллы
+</t>
+  </si>
+  <si>
+    <t>2025-03-19 06:02:31</t>
+  </si>
+  <si>
+    <t>~8</t>
+  </si>
+  <si>
+    <t>Nier: Automata (~50), Nier: Replicant (~50), Genshin Impact (~800), Fortnite (~1050), Honkai: Star Rail (~200), Zenless Zone Zero (~100)</t>
+  </si>
+  <si>
+    <t>Nier: Automata : Очень глубокий сюжет, интересные персонажи, великолепный саундтрек, открытый мир.</t>
+  </si>
+  <si>
+    <t>1. Nier: Automata
+2. Nier: Replicant
+3. Red Dead Redemption 2
+4. Fortnite
+5. Genshin Impact</t>
+  </si>
+  <si>
+    <t>В большей степени за сюжет игр (кроме Fortnite, тут больше нравится динамичность, характерная для battle royale).</t>
+  </si>
+  <si>
+    <t>1. РПГ
+2. Визуальные новеллы
+3. Экшн-шутеры
+4. Симуляторы
+5. Файтинги
+6. Игры-песочницы
+7. Стратегии
+8. Головоломки
+9. MMORPG
+10. Казуальные игры
+11. Гонки
+12. Аркады
+13. Роуг-лайк
+14. Квесты
+15. MOBA
+16. Хорроры</t>
+  </si>
+  <si>
+    <t>2025-03-19 05:47:05</t>
+  </si>
+  <si>
+    <t>Последние два года играю немного, часов 6-9 в неделю, возможно меньше. 
+Мобильные игры считаю пораждением зла😈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Apex Legends (1500 часов)  
+2. Rust (часов 400) 
+3. Owerwatch 2 (часов 300) 
+Сюжетные игры здесь смысла указывать не вижу. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Скорее всего из-за соревновательного элемента и возможности проводить время с близкими друзьями. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The Witcher 3: Wild Hunt
+2. Baldur's gate 3
+3. Heroes of Might and Magic 3
+4. The Last of Us 2
+5. (Вся соулс серия включая бладборн, секиро, и т.д.) 
+Сессионки, например Апекс, любимыми назвать не могу) ненавижу всем сердцем)) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уникальный опыт который они могут предоставить и эмоции которые способны вызвать. Большинство игр сейчас этим похвастаться не готовы. </t>
+  </si>
+  <si>
+    <t>1.Стратегии
+2.РПГ
+3.Экшен\шутеры
+4.роуг-лайк
+5.файтинги
+6.игры-песочницы
+7. хорроры
+8.гонки
+9.симуляторы
+10.головоломки
+11.квесты
+12.аркады
+13.казуальные игры
+14.MMORPG
+15.MOBA</t>
+  </si>
+  <si>
+    <t>2025-03-21 15:50:30</t>
+  </si>
+  <si>
+    <t>Играю в игры редко, но около 4-6 часов в неделю могу поиграть это включая выходные.</t>
+  </si>
+  <si>
+    <t>Последнее время на компьютере играю в SCP: Secret Laboratory суммарно около 200 часов за полтора года. На телефоне в chess.com - около 50 часов. Больше ни во что не играю активно последнее время.</t>
+  </si>
+  <si>
+    <t>Изначально  мне понравилась концепция игры, некий хоррор - выживание, но главная изюминка игры это голосовой чат. Если бы не он, было бы гораздо скучней играть. С помощью него можно коммуницировать с игроками, делиться информацией, шутить и выражать кучу эмоций, что делает игру живой.</t>
+  </si>
+  <si>
+    <t>SCP: Secret Laboratory
+Chess
+PUBG Mobile
+Call of Duty: Modern Warfare III
+Saints Row 3</t>
+  </si>
+  <si>
+    <t>Голосовой чат, соревновательный режим, веселье, стратегия.</t>
+  </si>
+  <si>
+    <t>1. Экшен-шутеры
+2. Стратегии
+3. Игры-песочницы
+4. Хорроры
+5. Гонки
+6. Файтинги
+7. Роуг-лайк
+8. РПГ
+9. MMORPG
+10. MOBA
+11. Квесты
+12. Головоломки
+13. Аркады
+14. Симуляторы
+15. Казуальные игры
+16. Визуальные новеллы</t>
+  </si>
+  <si>
+    <t>2025-03-20 06:00:17</t>
+  </si>
+  <si>
+    <t>5-6 часов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сounter Strike 2 - 6200
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">наличие соревновательного аспекта с другими игроками, доминирование
+механика самой игры
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CS 2
+2. Dark Souls
+3. Ведьмак Дикая Охота
+4. Метро
+5. Valheim
+</t>
+  </si>
+  <si>
+    <t>1. соревнования с другими игроками, механика игры
+2. прокачка, много снаряжения, механики игры, возможность сделать "индивидуального персонажа"
+3. сюжет, механика, графика, много снаряжения, озвучка, атмосфера
+4. атмосфера, графика, сюжет
+5. атмосфера, графика, открытый мир(частично открытый), строительство, возможность играть с друзьями</t>
+  </si>
+  <si>
+    <t>1. шутеры
+2. игры-песочницы 
+3. РПГ
+4. роуг-лайк
+5. гонки
+6. все остальное</t>
+  </si>
+  <si>
+    <t>2025-05-26 10:54:08</t>
+  </si>
+  <si>
+    <t>2ч</t>
+  </si>
+  <si>
+    <t>Block Bast - 15ч</t>
+  </si>
+  <si>
+    <t>Я играю в эту игру, когда я не дома и мне нечем заняться</t>
+  </si>
+  <si>
+    <t>Terraria
+The long dark 
+GRID
+Mafia 2
+Need for Speed Underground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атмосфера, музыкальное сопровождение, сюжет, драйв  </t>
+  </si>
+  <si>
+    <t>1. Гонки
+2. Игры-песочницы
+3. Головоломки 
+4. Экшен\шутеры
+5. Стратегии
+6. Квесты
+7. Файтинги 
+8. Симуляторы
+9. Хорроры
+10. Визуальные новеллы
+11.Аркады
+12. РПГ
+13. Казуальные игры 
+14. MOBA
+15. MMORPG
+16 Роуг-лайк</t>
+  </si>
+  <si>
+    <t>2025-03-21 07:58:40</t>
+  </si>
+  <si>
+    <t>20 часов ПК игры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Like a Dragon: Pirate Yakuza in Hawaii 25 часов Steam
+2. Ведьмак 3: Дикая охота 140 часов Steam
+3. Cyberpunk 2077 151 час Steam
+</t>
+  </si>
+  <si>
+    <t>Во-первых, я люблю серию игр Yakuza и её beat 'em up геймплея.
+Во-вторых, это очень интересный и привлекательный проект про пиратов за долгое время. Со времён Assassin's Creed Blac Flag таких же качественных проектов не выходило.</t>
+  </si>
+  <si>
+    <t>1. Ведьмак 3: Дикая охота
+2. Серия игр Yakuza/Like a Dragon 
+3. Серия игр Метро 
+4. Серия игр FarCry 
+5. Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Захватывающий сюжет (в том числе Team Fortress 2), интересный геймплей, открытый мир</t>
+  </si>
+  <si>
+    <t>1. РПГ
+2. Экшен/шутеры
+3. Игры-песочницы
+4. Роуг-лайк
+5. Казуальные игры
+6. MOBA 
+7. MMORPG
+8. Аркады
+9. Квесты
+10. Головоломки
+11. Симуляторы
+12. Файтинги
+13. Хорроры
+14. Визуальные новеллы 
+15. Гонки
+16. Стратегии</t>
+  </si>
+  <si>
+    <t>2025-03-18 16:11:24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Arena Breakout: Infinite(400 часов)
+GTA 5(2000 часов)
+Tom Clancy's Rainbow Six: Siege(1200часов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">потому что чаще всего играю с друзьями, интересные механики, которые не надоедают </t>
+  </si>
+  <si>
+    <t>The Last of Us
+Atomic Heart
+God of War
+Ghost of Tsushima
+GTA 5</t>
+  </si>
+  <si>
+    <t>Сюжет, сеттинг, атмосфера, общение с друзьями, игровые механики, графика</t>
+  </si>
+  <si>
+    <t>экшен\шутеры
+симуляторы
+гонки
+аркады
+файтинги
+стратегии
+головоломки
+РПГ
+хорроры
+игры-песочницы
+казуальные игры
+MOBA
+визуальные новеллы
+MMORPG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,7 +2197,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -358,16 +2205,353 @@
       <name val="Liberation Sans"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -375,9 +2559,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -386,17 +2812,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
+    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
+    <cellStyle name="Процент" xfId="3" builtinId="5"/>
+    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
+    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
+    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
+    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
+    <cellStyle name="Итого" xfId="21" builtinId="25"/>
+    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
+    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
+    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
+    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -688,24 +3158,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="AJ59" sqref="A6:AJ59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,7 +3280,7 @@
       <c r="AJ1"/>
       <c r="AK1"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:33">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -911,7 +3381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>333752</v>
       </c>
@@ -1012,7 +3482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>325017</v>
       </c>
@@ -1113,7 +3583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>365415</v>
       </c>
@@ -1214,149 +3684,4761 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:33">
+      <c r="A6" s="2">
+        <v>902176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:33">
+      <c r="A7" s="2">
+        <v>885292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" t="s">
+        <v>45</v>
+      </c>
+      <c r="X7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2">
+        <v>195499</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2">
+        <v>146831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="W9" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2">
+        <v>845926</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:33">
+      <c r="A11" s="2">
+        <v>913071</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:33">
+      <c r="A12" s="2">
+        <v>735684</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" t="s">
+        <v>70</v>
+      </c>
+      <c r="W12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:33">
+      <c r="A13" s="2">
+        <v>834979</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" t="s">
+        <v>45</v>
+      </c>
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="2"/>
+    <row r="14" spans="1:33">
+      <c r="A14" s="2">
+        <v>443408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" t="s">
+        <v>70</v>
+      </c>
+      <c r="X14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2">
+        <v>648208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" t="s">
+        <v>43</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" t="s">
+        <v>43</v>
+      </c>
+      <c r="W15" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="2"/>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2">
+        <v>841045</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16" t="s">
+        <v>44</v>
+      </c>
+      <c r="V16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:33">
+      <c r="A17" s="2">
+        <v>373596</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:33">
+      <c r="A18" s="2">
+        <v>113244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" t="s">
+        <v>70</v>
+      </c>
+      <c r="W18" t="s">
+        <v>70</v>
+      </c>
+      <c r="X18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:33">
+      <c r="A19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
+        <v>70</v>
+      </c>
+      <c r="W19" t="s">
+        <v>42</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:33">
+      <c r="A20" s="2">
+        <v>862274</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O20" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" t="s">
+        <v>42</v>
+      </c>
+      <c r="U20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s">
+        <v>44</v>
+      </c>
+      <c r="X20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:33">
+      <c r="A21" s="2">
+        <v>761404</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>42</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:33">
+      <c r="A22" s="2">
+        <v>557394</v>
+      </c>
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S22" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2"/>
+    <row r="23" spans="1:33">
+      <c r="A23" s="2">
+        <v>632847</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>43</v>
+      </c>
+      <c r="R23" t="s">
+        <v>42</v>
+      </c>
+      <c r="S23" t="s">
+        <v>44</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:33">
+      <c r="A24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N24" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" t="s">
+        <v>42</v>
+      </c>
+      <c r="S24" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V24" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:33">
+      <c r="A25" s="2">
+        <v>710022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" t="s">
+        <v>43</v>
+      </c>
+      <c r="S25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T25" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" t="s">
+        <v>42</v>
+      </c>
+      <c r="V25" t="s">
+        <v>70</v>
+      </c>
+      <c r="W25" t="s">
+        <v>43</v>
+      </c>
+      <c r="X25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2"/>
+    <row r="26" spans="1:33">
+      <c r="A26" s="2">
+        <v>120125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" t="s">
+        <v>70</v>
+      </c>
+      <c r="U26" t="s">
+        <v>70</v>
+      </c>
+      <c r="V26" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2"/>
+    <row r="27" spans="1:33">
+      <c r="A27" s="2">
+        <v>814770</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" t="s">
+        <v>226</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
+      <c r="U27" t="s">
+        <v>70</v>
+      </c>
+      <c r="V27" t="s">
+        <v>70</v>
+      </c>
+      <c r="W27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2"/>
+    <row r="28" spans="1:33">
+      <c r="A28" s="2">
+        <v>483009</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" t="s">
+        <v>232</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" t="s">
+        <v>42</v>
+      </c>
+      <c r="T28" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2"/>
+    <row r="29" spans="1:33">
+      <c r="A29" s="2">
+        <v>155121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" t="s">
+        <v>70</v>
+      </c>
+      <c r="T29" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" t="s">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s">
+        <v>70</v>
+      </c>
+      <c r="W29" t="s">
+        <v>44</v>
+      </c>
+      <c r="X29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2"/>
+    <row r="30" spans="1:33">
+      <c r="A30" s="2">
+        <v>679594</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" t="s">
+        <v>246</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="R30" t="s">
+        <v>70</v>
+      </c>
+      <c r="S30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" t="s">
+        <v>70</v>
+      </c>
+      <c r="W30" t="s">
+        <v>42</v>
+      </c>
+      <c r="X30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:33">
+      <c r="A31" s="2">
+        <v>135304</v>
+      </c>
+      <c r="B31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>252</v>
+      </c>
+      <c r="H31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" t="s">
+        <v>70</v>
+      </c>
+      <c r="V31" t="s">
+        <v>70</v>
+      </c>
+      <c r="W31" t="s">
+        <v>43</v>
+      </c>
+      <c r="X31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:33">
+      <c r="A32" s="2">
+        <v>447885</v>
+      </c>
+      <c r="B32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" t="s">
+        <v>258</v>
+      </c>
+      <c r="G32" t="s">
+        <v>259</v>
+      </c>
+      <c r="H32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>43</v>
+      </c>
+      <c r="R32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" t="s">
+        <v>42</v>
+      </c>
+      <c r="W32" t="s">
+        <v>70</v>
+      </c>
+      <c r="X32" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
+    <row r="33" spans="1:33">
+      <c r="A33" s="2">
+        <v>355835</v>
+      </c>
+      <c r="B33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" t="s">
+        <v>267</v>
+      </c>
+      <c r="I33" t="s">
+        <v>268</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>70</v>
+      </c>
+      <c r="R33" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s">
+        <v>42</v>
+      </c>
+      <c r="U33" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" t="s">
+        <v>70</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:33">
+      <c r="A34" s="2">
+        <v>587707</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="H34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34" t="s">
+        <v>70</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>43</v>
+      </c>
+      <c r="U34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W34" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2"/>
+    <row r="35" spans="1:33">
+      <c r="A35" s="2">
+        <v>105832</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" t="s">
+        <v>280</v>
+      </c>
+      <c r="H35" t="s">
+        <v>281</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" t="s">
+        <v>43</v>
+      </c>
+      <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s">
+        <v>45</v>
+      </c>
+      <c r="W35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
+    <row r="36" spans="1:33">
+      <c r="A36" s="2">
+        <v>265094</v>
+      </c>
+      <c r="B36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" t="s">
+        <v>285</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" t="s">
+        <v>288</v>
+      </c>
+      <c r="I36" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" t="s">
+        <v>42</v>
+      </c>
+      <c r="T36" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:33">
+      <c r="A37" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>295</v>
+      </c>
+      <c r="H37" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" t="s">
+        <v>44</v>
+      </c>
+      <c r="T37" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" t="s">
+        <v>43</v>
+      </c>
+      <c r="V37" t="s">
+        <v>44</v>
+      </c>
+      <c r="W37" t="s">
+        <v>42</v>
+      </c>
+      <c r="X37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:33">
+      <c r="A38" s="2">
+        <v>527415</v>
+      </c>
+      <c r="B38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>299</v>
+      </c>
+      <c r="E38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" t="s">
+        <v>303</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" t="s">
+        <v>43</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" t="s">
+        <v>42</v>
+      </c>
+      <c r="T38" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" t="s">
+        <v>44</v>
+      </c>
+      <c r="V38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W38" t="s">
+        <v>45</v>
+      </c>
+      <c r="X38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:33">
+      <c r="A39" s="2">
+        <v>825526</v>
+      </c>
+      <c r="B39" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" t="s">
+        <v>309</v>
+      </c>
+      <c r="H39" t="s">
+        <v>310</v>
+      </c>
+      <c r="I39" t="s">
+        <v>311</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>43</v>
+      </c>
+      <c r="R39" t="s">
+        <v>42</v>
+      </c>
+      <c r="S39" t="s">
+        <v>42</v>
+      </c>
+      <c r="T39" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s">
+        <v>44</v>
+      </c>
+      <c r="W39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2"/>
+    <row r="40" spans="1:33">
+      <c r="A40" s="2">
+        <v>907623</v>
+      </c>
+      <c r="B40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M40" t="s">
+        <v>44</v>
+      </c>
+      <c r="N40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" t="s">
+        <v>42</v>
+      </c>
+      <c r="S40" t="s">
+        <v>44</v>
+      </c>
+      <c r="T40" t="s">
+        <v>43</v>
+      </c>
+      <c r="U40" t="s">
+        <v>44</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s">
+        <v>44</v>
+      </c>
+      <c r="X40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
+    <row r="41" spans="1:33">
+      <c r="A41" s="2">
+        <v>971006</v>
+      </c>
+      <c r="B41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" t="s">
+        <v>323</v>
+      </c>
+      <c r="H41" t="s">
+        <v>324</v>
+      </c>
+      <c r="I41" t="s">
+        <v>325</v>
+      </c>
+      <c r="J41" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U41" t="s">
+        <v>42</v>
+      </c>
+      <c r="V41" t="s">
+        <v>70</v>
+      </c>
+      <c r="W41" t="s">
+        <v>44</v>
+      </c>
+      <c r="X41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2"/>
+    <row r="42" spans="1:33">
+      <c r="A42" s="2">
+        <v>489107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>326</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42" t="s">
+        <v>328</v>
+      </c>
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" t="s">
+        <v>331</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" t="s">
+        <v>43</v>
+      </c>
+      <c r="M42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R42" t="s">
+        <v>44</v>
+      </c>
+      <c r="S42" t="s">
+        <v>44</v>
+      </c>
+      <c r="T42" t="s">
+        <v>43</v>
+      </c>
+      <c r="U42" t="s">
+        <v>44</v>
+      </c>
+      <c r="V42" t="s">
+        <v>70</v>
+      </c>
+      <c r="W42" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2"/>
+    <row r="43" spans="1:33">
+      <c r="A43" s="2">
+        <v>863463</v>
+      </c>
+      <c r="B43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>334</v>
+      </c>
+      <c r="E43" t="s">
+        <v>335</v>
+      </c>
+      <c r="F43" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" t="s">
+        <v>337</v>
+      </c>
+      <c r="H43" t="s">
+        <v>338</v>
+      </c>
+      <c r="I43" t="s">
+        <v>339</v>
+      </c>
+      <c r="J43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" t="s">
+        <v>43</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" t="s">
+        <v>43</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>43</v>
+      </c>
+      <c r="R43" t="s">
+        <v>43</v>
+      </c>
+      <c r="S43" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" t="s">
+        <v>43</v>
+      </c>
+      <c r="U43" t="s">
+        <v>43</v>
+      </c>
+      <c r="V43" t="s">
+        <v>70</v>
+      </c>
+      <c r="W43" t="s">
+        <v>44</v>
+      </c>
+      <c r="X43" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2"/>
+    <row r="44" spans="1:33">
+      <c r="A44" s="2">
+        <v>241446</v>
+      </c>
+      <c r="B44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" t="s">
+        <v>344</v>
+      </c>
+      <c r="H44" t="s">
+        <v>345</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S44" t="s">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44" t="s">
+        <v>43</v>
+      </c>
+      <c r="V44" t="s">
+        <v>70</v>
+      </c>
+      <c r="W44" t="s">
+        <v>43</v>
+      </c>
+      <c r="X44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:33">
+      <c r="A45" s="2">
+        <v>820694</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" t="s">
+        <v>350</v>
+      </c>
+      <c r="G45" t="s">
+        <v>351</v>
+      </c>
+      <c r="H45" t="s">
+        <v>352</v>
+      </c>
+      <c r="I45" t="s">
+        <v>353</v>
+      </c>
+      <c r="J45" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>42</v>
+      </c>
+      <c r="R45" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" t="s">
+        <v>43</v>
+      </c>
+      <c r="T45" t="s">
+        <v>43</v>
+      </c>
+      <c r="U45" t="s">
+        <v>43</v>
+      </c>
+      <c r="V45" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" t="s">
+        <v>42</v>
+      </c>
+      <c r="X45" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2"/>
+    <row r="46" spans="1:33">
+      <c r="A46" s="2">
+        <v>475645</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>358</v>
+      </c>
+      <c r="H46" t="s">
+        <v>359</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s">
+        <v>43</v>
+      </c>
+      <c r="V46" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s">
+        <v>45</v>
+      </c>
+      <c r="X46" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:33">
+      <c r="A47" s="2">
+        <v>319924</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" t="s">
+        <v>362</v>
+      </c>
+      <c r="E47" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" t="s">
+        <v>365</v>
+      </c>
+      <c r="H47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>43</v>
+      </c>
+      <c r="R47" t="s">
+        <v>70</v>
+      </c>
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47" t="s">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s">
+        <v>43</v>
+      </c>
+      <c r="V47" t="s">
+        <v>70</v>
+      </c>
+      <c r="W47" t="s">
+        <v>43</v>
+      </c>
+      <c r="X47" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:33">
+      <c r="A48" s="2">
+        <v>208114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" t="s">
+        <v>369</v>
+      </c>
+      <c r="E48" t="s">
+        <v>370</v>
+      </c>
+      <c r="F48" t="s">
+        <v>371</v>
+      </c>
+      <c r="G48" t="s">
+        <v>372</v>
+      </c>
+      <c r="H48" t="s">
+        <v>373</v>
+      </c>
+      <c r="I48" t="s">
+        <v>374</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" t="s">
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>42</v>
+      </c>
+      <c r="P48" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" t="s">
+        <v>44</v>
+      </c>
+      <c r="S48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s">
+        <v>42</v>
+      </c>
+      <c r="V48" t="s">
+        <v>70</v>
+      </c>
+      <c r="W48" t="s">
+        <v>43</v>
+      </c>
+      <c r="X48" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2"/>
+    <row r="49" spans="1:33">
+      <c r="A49" s="2">
+        <v>300279</v>
+      </c>
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" t="s">
+        <v>377</v>
+      </c>
+      <c r="F49" t="s">
+        <v>378</v>
+      </c>
+      <c r="G49" t="s">
+        <v>379</v>
+      </c>
+      <c r="H49" t="s">
+        <v>380</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s">
+        <v>69</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>70</v>
+      </c>
+      <c r="R49" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" t="s">
+        <v>43</v>
+      </c>
+      <c r="T49" t="s">
+        <v>43</v>
+      </c>
+      <c r="U49" t="s">
+        <v>44</v>
+      </c>
+      <c r="V49" t="s">
+        <v>42</v>
+      </c>
+      <c r="W49" t="s">
+        <v>44</v>
+      </c>
+      <c r="X49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2"/>
+    <row r="50" spans="1:33">
+      <c r="A50" s="2">
+        <v>446415</v>
+      </c>
+      <c r="B50" t="s">
+        <v>382</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" t="s">
+        <v>384</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>386</v>
+      </c>
+      <c r="H50" t="s">
+        <v>387</v>
+      </c>
+      <c r="I50" t="s">
+        <v>388</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" t="s">
+        <v>42</v>
+      </c>
+      <c r="O50" t="s">
+        <v>42</v>
+      </c>
+      <c r="P50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s">
+        <v>42</v>
+      </c>
+      <c r="T50" t="s">
+        <v>45</v>
+      </c>
+      <c r="U50" t="s">
+        <v>44</v>
+      </c>
+      <c r="V50" t="s">
+        <v>70</v>
+      </c>
+      <c r="W50" t="s">
+        <v>44</v>
+      </c>
+      <c r="X50" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2"/>
+    <row r="51" spans="1:33">
+      <c r="A51" s="2">
+        <v>666522</v>
+      </c>
+      <c r="B51" t="s">
+        <v>389</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" t="s">
+        <v>390</v>
+      </c>
+      <c r="E51" t="s">
+        <v>391</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>393</v>
+      </c>
+      <c r="H51" t="s">
+        <v>394</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>44</v>
+      </c>
+      <c r="K51" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" t="s">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>43</v>
+      </c>
+      <c r="R51" t="s">
+        <v>70</v>
+      </c>
+      <c r="S51" t="s">
+        <v>70</v>
+      </c>
+      <c r="T51" t="s">
+        <v>43</v>
+      </c>
+      <c r="U51" t="s">
+        <v>44</v>
+      </c>
+      <c r="V51" t="s">
+        <v>70</v>
+      </c>
+      <c r="W51" t="s">
+        <v>44</v>
+      </c>
+      <c r="X51" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2"/>
+    <row r="52" spans="1:33">
+      <c r="A52" s="2">
+        <v>344772</v>
+      </c>
+      <c r="B52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>397</v>
+      </c>
+      <c r="E52" t="s">
+        <v>398</v>
+      </c>
+      <c r="F52" t="s">
+        <v>399</v>
+      </c>
+      <c r="G52" t="s">
+        <v>400</v>
+      </c>
+      <c r="H52" t="s">
+        <v>401</v>
+      </c>
+      <c r="I52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" t="s">
+        <v>69</v>
+      </c>
+      <c r="L52" t="s">
+        <v>43</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>42</v>
+      </c>
+      <c r="P52" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>70</v>
+      </c>
+      <c r="R52" t="s">
+        <v>44</v>
+      </c>
+      <c r="S52" t="s">
+        <v>44</v>
+      </c>
+      <c r="T52" t="s">
+        <v>43</v>
+      </c>
+      <c r="U52" t="s">
+        <v>43</v>
+      </c>
+      <c r="V52" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s">
+        <v>43</v>
+      </c>
+      <c r="X52" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AK52" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:AK52">
+      <sortCondition ref="C1:C52"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>